--- a/pa/PA5/Deliverables/TestCases_Group05.xlsx
+++ b/pa/PA5/Deliverables/TestCases_Group05.xlsx
@@ -1,22 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quangminh/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2677DA5A-2120-9C45-A179-26824AD1EB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Features" sheetId="1" r:id="rId1"/>
-    <sheet name="Test cases" sheetId="2" r:id="rId2"/>
+    <sheet state="visible" name="Features" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Test cases" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="29a+odUKGQIsfkRYqlZVMkkCCn/kE8J2/Q9y50Knkac="/>
@@ -30,18 +21,18 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b/>
-        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <sz val="11.0"/>
       </rPr>
       <t>Project</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Calibri"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <sz val="11.0"/>
       </rPr>
       <t>: hailua.com.vn</t>
     </r>
@@ -52,18 +43,18 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b/>
-        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <sz val="11.0"/>
       </rPr>
       <t>Team</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Calibri"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <sz val="11.0"/>
       </rPr>
       <t>: 5</t>
     </r>
@@ -399,9 +390,9 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Calibri"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1. Access AuraSky website. then click the Create  Button to access Create page
 2. Don't fill image form
@@ -409,54 +400,54 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Calibri"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b/>
-        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">"Test"
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Calibri"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <sz val="11.0"/>
       </rPr>
       <t>4. Description:</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <i/>
-        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b/>
-        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">"abc"
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Calibri"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">5. Click "Create" button
 </t>
@@ -471,9 +462,9 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Calibri,Arial"/>
         <color theme="1"/>
-        <rFont val="Calibri,Arial"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1. Access AuraSky website. then click the Create  Button to access Create page
 2. Choose image from device
@@ -481,54 +472,54 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Calibri,Arial"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri,Arial"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri,Arial"/>
         <b/>
-        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <rFont val="Calibri,Arial"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">""
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Calibri,Arial"/>
         <color theme="1"/>
-        <rFont val="Calibri,Arial"/>
+        <sz val="11.0"/>
       </rPr>
       <t>4. Description:</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri,Arial"/>
         <i/>
-        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <rFont val="Calibri,Arial"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri,Arial"/>
         <b/>
-        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <rFont val="Calibri,Arial"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">"abc"
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Calibri,Arial"/>
         <color theme="1"/>
-        <rFont val="Calibri,Arial"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">5. Click "Create" button
 </t>
@@ -543,9 +534,9 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Calibri,Arial"/>
         <color theme="1"/>
-        <rFont val="Calibri,Arial"/>
+        <sz val="11.0"/>
       </rPr>
       <t>1. Access AuraSky website. then click the Create  Button to access Create page
 2. Choose image from device
@@ -553,71 +544,71 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Calibri,Arial"/>
         <color rgb="FF0000FF"/>
-        <rFont val="Calibri,Arial"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> "</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri,Arial"/>
         <b/>
-        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <rFont val="Calibri,Arial"/>
+        <sz val="11.0"/>
       </rPr>
       <t>test</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Calibri,Arial"/>
         <color rgb="FF0000FF"/>
-        <rFont val="Calibri,Arial"/>
+        <sz val="11.0"/>
       </rPr>
       <t>"</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri,Arial"/>
         <b/>
-        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <rFont val="Calibri,Arial"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Calibri,Arial"/>
         <color theme="1"/>
-        <rFont val="Calibri,Arial"/>
+        <sz val="11.0"/>
       </rPr>
       <t>4. Description:</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri,Arial"/>
         <i/>
-        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <rFont val="Calibri,Arial"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri,Arial"/>
         <b/>
-        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <rFont val="Calibri,Arial"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">""
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Calibri,Arial"/>
         <color theme="1"/>
-        <rFont val="Calibri,Arial"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">5. Click "Create" button
 </t>
@@ -797,105 +788,44 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm/yy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="7">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="13.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="13.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
-      <sz val="13"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri,Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri,Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri,Arial"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri,Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri,Arial"/>
     </font>
   </fonts>
   <fills count="8">
@@ -903,7 +833,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -942,133 +872,169 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
+    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <right/>
+      <top/>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="31">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf quotePrefix="1" borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf quotePrefix="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf quotePrefix="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf quotePrefix="1" borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="2" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFDBE5F1"/>
           <bgColor rgb="FFDBE5F1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB8CCE4"/>
-          <bgColor rgb="FFB8CCE4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
+      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Features-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    <tableStyle count="3" pivot="0" name="Features-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A5:E10" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A5:E10" displayName="Table_1" id="1">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+    <tableColumn name="Column5" id="5"/>
   </tableColumns>
-  <tableStyleInfo name="Features-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="Features-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
@@ -1078,7 +1044,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1268,29 +1234,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1001"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.1640625" customWidth="1"/>
-    <col min="4" max="4" width="45.33203125" customWidth="1"/>
-    <col min="5" max="26" width="8.83203125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="5.43"/>
+    <col customWidth="1" min="2" max="2" width="31.71"/>
+    <col customWidth="1" min="3" max="3" width="40.14"/>
+    <col customWidth="1" min="4" max="4" width="45.29"/>
+    <col customWidth="1" min="5" max="26" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1298,121 +1262,121 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="3" t="s">
+    <row r="4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="5" t="s">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="7" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="5" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="7" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="5" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="7" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1422,23 +1386,23 @@
         <v>24</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="5" t="s">
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="7" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1448,7 +1412,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -2431,1609 +2395,1611 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" customWidth="1"/>
-    <col min="4" max="4" width="35.1640625" customWidth="1"/>
-    <col min="5" max="5" width="27.83203125" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" customWidth="1"/>
-    <col min="8" max="8" width="27.5" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" customWidth="1"/>
-    <col min="11" max="26" width="8.83203125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="20.14"/>
+    <col customWidth="1" min="2" max="2" width="13.0"/>
+    <col customWidth="1" min="3" max="3" width="25.86"/>
+    <col customWidth="1" min="4" max="4" width="35.14"/>
+    <col customWidth="1" min="5" max="5" width="27.86"/>
+    <col customWidth="1" min="6" max="6" width="22.29"/>
+    <col customWidth="1" min="7" max="7" width="8.86"/>
+    <col customWidth="1" min="8" max="8" width="27.43"/>
+    <col customWidth="1" min="9" max="9" width="13.71"/>
+    <col customWidth="1" min="10" max="10" width="11.86"/>
+    <col customWidth="1" min="11" max="26" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="33.75" customHeight="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" ht="33.75" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" spans="1:26" ht="33.75" customHeight="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="24" t="s">
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" ht="33.75" customHeight="1">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-    </row>
-    <row r="3" spans="1:26" ht="66" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+    </row>
+    <row r="3" ht="66.0" customHeight="1">
+      <c r="A3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="17">
-        <v>45295</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-    </row>
-    <row r="4" spans="1:26" ht="66.75" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="J3" s="21">
+        <v>45289.0</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" ht="66.75" customHeight="1">
+      <c r="A4" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="21">
-        <v>45295</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-    </row>
-    <row r="5" spans="1:26" ht="78" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="J4" s="25">
+        <v>45289.0</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" ht="78.0" customHeight="1">
+      <c r="A5" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="17">
-        <v>45295</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:26" ht="93" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="J5" s="21">
+        <v>45289.0</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" ht="93.0" customHeight="1">
+      <c r="A6" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="21">
-        <v>45295</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" ht="39" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="24" t="s">
+      <c r="J6" s="25">
+        <v>45289.0</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" ht="39.0" customHeight="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-    </row>
-    <row r="8" spans="1:26" ht="124" customHeight="1">
-      <c r="A8" s="14" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+    </row>
+    <row r="8" ht="123.75" customHeight="1">
+      <c r="A8" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="17">
-        <v>45289</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="1:26" ht="97" customHeight="1">
-      <c r="A9" s="18" t="s">
+      <c r="J8" s="21">
+        <v>45289.0</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" ht="96.75" customHeight="1">
+      <c r="A9" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="21">
-        <v>45289</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-    </row>
-    <row r="10" spans="1:26" ht="63" customHeight="1">
-      <c r="A10" s="14" t="s">
+      <c r="J9" s="25">
+        <v>45289.0</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" ht="63.0" customHeight="1">
+      <c r="A10" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="17">
-        <v>45289</v>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="1:26" ht="91" customHeight="1">
-      <c r="A11" s="18" t="s">
+      <c r="J10" s="26">
+        <v>45289.0</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" ht="90.75" customHeight="1">
+      <c r="A11" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="21">
-        <v>45289</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" ht="39.75" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="24" t="s">
+      <c r="J11" s="27">
+        <v>45289.0</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" ht="39.75" customHeight="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-    </row>
-    <row r="13" spans="1:26" ht="74" customHeight="1">
-      <c r="A13" s="14" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+    </row>
+    <row r="13" ht="73.5" customHeight="1">
+      <c r="A13" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="17">
-        <v>45297</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="1:26" ht="75" customHeight="1">
-      <c r="A14" s="18" t="s">
+      <c r="J13" s="21">
+        <v>45289.0</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" ht="75.0" customHeight="1">
+      <c r="A14" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="21">
-        <v>45297</v>
-      </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="1:26" ht="39" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="24" t="s">
+      <c r="J14" s="25">
+        <v>45289.0</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" ht="39.0" customHeight="1">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-    </row>
-    <row r="16" spans="1:26" ht="125.25" customHeight="1">
-      <c r="A16" s="14" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+    </row>
+    <row r="16" ht="125.25" customHeight="1">
+      <c r="A16" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="17">
-        <v>45297</v>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-    </row>
-    <row r="17" spans="1:26" ht="86" customHeight="1">
-      <c r="A17" s="18" t="s">
+      <c r="J16" s="21">
+        <v>45290.0</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" ht="85.5" customHeight="1">
+      <c r="A17" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="21">
-        <v>45297</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-    </row>
-    <row r="18" spans="1:26" ht="112">
-      <c r="A18" s="14" t="s">
+      <c r="J17" s="25">
+        <v>45290.0</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="17">
-        <v>45297</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-    </row>
-    <row r="19" spans="1:26" ht="128">
-      <c r="A19" s="18" t="s">
+      <c r="J18" s="21">
+        <v>45290.0</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J19" s="21">
-        <v>45297</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-    </row>
-    <row r="20" spans="1:26" ht="128">
-      <c r="A20" s="14" t="s">
+      <c r="J19" s="25">
+        <v>45290.0</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="17">
-        <v>45297</v>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-    </row>
-    <row r="21" spans="1:26" ht="37.5" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="24" t="s">
+      <c r="J20" s="21">
+        <v>45290.0</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" ht="37.5" customHeight="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-    </row>
-    <row r="22" spans="1:26" ht="93" customHeight="1">
-      <c r="A22" s="18" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+    </row>
+    <row r="22" ht="93.0" customHeight="1">
+      <c r="A22" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="21">
-        <v>45298</v>
-      </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-    </row>
-    <row r="23" spans="1:26" ht="93" customHeight="1">
-      <c r="A23" s="14" t="s">
+      <c r="J22" s="25">
+        <v>45290.0</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" ht="93.0" customHeight="1">
+      <c r="A23" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="17">
-        <v>45298</v>
-      </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-    </row>
-    <row r="24" spans="1:26" ht="60" customHeight="1">
-      <c r="A24" s="18" t="s">
+      <c r="J23" s="21">
+        <v>45290.0</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" ht="60.0" customHeight="1">
+      <c r="A24" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="21">
-        <v>45298</v>
-      </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-    </row>
-    <row r="25" spans="1:26" ht="42" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="24" t="s">
+      <c r="J24" s="25">
+        <v>45290.0</v>
+      </c>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" ht="42.0" customHeight="1">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-    </row>
-    <row r="26" spans="1:26" ht="66" customHeight="1">
-      <c r="A26" s="14" t="s">
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+    </row>
+    <row r="26" ht="66.0" customHeight="1">
+      <c r="A26" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="I26" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="17">
-        <v>45298</v>
-      </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-    </row>
-    <row r="27" spans="1:26" ht="66" customHeight="1">
-      <c r="A27" s="18" t="s">
+      <c r="J26" s="21">
+        <v>45290.0</v>
+      </c>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" ht="66.0" customHeight="1">
+      <c r="A27" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="21">
-        <v>45298</v>
-      </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-    </row>
-    <row r="28" spans="1:26" ht="64" customHeight="1">
-      <c r="A28" s="14" t="s">
+      <c r="J27" s="25">
+        <v>45290.0</v>
+      </c>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" ht="63.75" customHeight="1">
+      <c r="A28" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="17">
-        <v>45298</v>
-      </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-    </row>
-    <row r="29" spans="1:26" ht="32.25" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="24" t="s">
+      <c r="J28" s="21">
+        <v>45290.0</v>
+      </c>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" ht="32.25" customHeight="1">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-    </row>
-    <row r="30" spans="1:26" ht="72" customHeight="1">
-      <c r="A30" s="18" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+    </row>
+    <row r="30" ht="72.0" customHeight="1">
+      <c r="A30" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="G30" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="21">
-        <v>45296</v>
-      </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-    </row>
-    <row r="31" spans="1:26" ht="80" customHeight="1">
-      <c r="A31" s="14" t="s">
+      <c r="J30" s="25">
+        <v>45291.0</v>
+      </c>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" ht="79.5" customHeight="1">
+      <c r="A31" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="I31" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="17">
-        <v>45296</v>
-      </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-    </row>
-    <row r="32" spans="1:26" ht="83" customHeight="1">
-      <c r="A32" s="18" t="s">
+      <c r="J31" s="21">
+        <v>45291.0</v>
+      </c>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" ht="82.5" customHeight="1">
+      <c r="A32" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="H32" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="I32" s="18" t="s">
+      <c r="I32" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J32" s="21">
-        <v>45296</v>
-      </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-    </row>
-    <row r="33" spans="1:26" ht="114" customHeight="1">
-      <c r="A33" s="14" t="s">
+      <c r="J32" s="25">
+        <v>45291.0</v>
+      </c>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" ht="114.0" customHeight="1">
+      <c r="A33" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="I33" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J33" s="17">
-        <v>45296</v>
-      </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-    </row>
-    <row r="34" spans="1:26" ht="33.75" customHeight="1">
-      <c r="A34" s="11"/>
-      <c r="B34" s="24" t="s">
+      <c r="J33" s="21">
+        <v>45291.0</v>
+      </c>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" ht="33.75" customHeight="1">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
-    </row>
-    <row r="35" spans="1:26" ht="58" customHeight="1">
-      <c r="A35" s="18" t="s">
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+    </row>
+    <row r="35" ht="57.75" customHeight="1">
+      <c r="A35" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G35" s="19" t="s">
+      <c r="G35" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H35" s="18" t="s">
+      <c r="H35" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="I35" s="18" t="s">
+      <c r="I35" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J35" s="21">
-        <v>45298</v>
-      </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-    </row>
-    <row r="36" spans="1:26" ht="52" customHeight="1">
-      <c r="A36" s="14" t="s">
+      <c r="J35" s="25">
+        <v>45291.0</v>
+      </c>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="36" ht="51.75" customHeight="1">
+      <c r="A36" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="H36" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I36" s="14" t="s">
+      <c r="I36" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J36" s="17">
-        <v>45298</v>
-      </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-    </row>
-    <row r="37" spans="1:26" ht="53" customHeight="1">
-      <c r="A37" s="18" t="s">
+      <c r="J36" s="21">
+        <v>45291.0</v>
+      </c>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+    </row>
+    <row r="37" ht="52.5" customHeight="1">
+      <c r="A37" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="19" t="s">
+      <c r="G37" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H37" s="18" t="s">
+      <c r="H37" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="I37" s="18" t="s">
+      <c r="I37" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J37" s="21">
-        <v>45298</v>
-      </c>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-    </row>
-    <row r="38" spans="1:26" ht="51" customHeight="1">
-      <c r="A38" s="14" t="s">
+      <c r="J37" s="25">
+        <v>45291.0</v>
+      </c>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+    </row>
+    <row r="38" ht="51.0" customHeight="1">
+      <c r="A38" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G38" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="H38" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I38" s="14" t="s">
+      <c r="I38" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J38" s="17">
-        <v>45298</v>
-      </c>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-    </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1">
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-    </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1">
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-    </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1">
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-    </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1">
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-    </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1">
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-    </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1">
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-    </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1">
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-    </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1">
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-    </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1">
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-    </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1">
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-    </row>
-    <row r="49" spans="11:17" ht="15.75" customHeight="1">
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-    </row>
-    <row r="50" spans="11:17" ht="15.75" customHeight="1">
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-    </row>
-    <row r="51" spans="11:17" ht="15.75" customHeight="1">
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-    </row>
-    <row r="52" spans="11:17" ht="15.75" customHeight="1">
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-    </row>
-    <row r="53" spans="11:17" ht="15.75" customHeight="1">
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-    </row>
-    <row r="54" spans="11:17" ht="15.75" customHeight="1">
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-    </row>
-    <row r="55" spans="11:17" ht="15.75" customHeight="1">
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-    </row>
-    <row r="56" spans="11:17" ht="15.75" customHeight="1"/>
-    <row r="57" spans="11:17" ht="15.75" customHeight="1"/>
-    <row r="58" spans="11:17" ht="15.75" customHeight="1"/>
-    <row r="59" spans="11:17" ht="15.75" customHeight="1"/>
-    <row r="60" spans="11:17" ht="15.75" customHeight="1"/>
-    <row r="61" spans="11:17" ht="15.75" customHeight="1"/>
-    <row r="62" spans="11:17" ht="15.75" customHeight="1"/>
-    <row r="63" spans="11:17" ht="15.75" customHeight="1"/>
-    <row r="64" spans="11:17" ht="15.75" customHeight="1"/>
+      <c r="J38" s="21">
+        <v>45291.0</v>
+      </c>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -4972,16 +4938,18 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B34:I34"/>
     <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B7:I7"/>
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="B21:I21"/>
     <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B34:I34"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>